--- a/data/trans_dic/P1002-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,13; 12,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,16</t>
+          <t>0,66; 4,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,06; 25,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,05</t>
+          <t>1,65; 5,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,49; 18,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,75</t>
+          <t>1,5; 3,75</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>8,85%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,19</t>
+          <t>4,63; 9,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 13,5</t>
+          <t>8,64; 13,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,21</t>
+          <t>7,45; 10,87</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,71</t>
+          <t>3,71; 8,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,61</t>
+          <t>4,76; 8,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,9</t>
+          <t>4,71; 7,81</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,57</t>
+          <t>3,91; 8,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,46</t>
+          <t>3,48; 9,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 23,62</t>
+          <t>16,66; 24,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 14,34</t>
+          <t>5,47; 12,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 16,0</t>
+          <t>11,3; 16,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,39</t>
+          <t>5,65; 10,45</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,49</t>
+          <t>1,62; 5,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,0</t>
+          <t>6,7; 12,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,17</t>
+          <t>4,72; 8,15</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,14</t>
+          <t>3,29; 8,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,56</t>
+          <t>5,13; 9,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,91</t>
+          <t>4,82; 7,82</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,1</t>
+          <t>5,85; 10,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,7</t>
+          <t>4,6; 14,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,98</t>
+          <t>5,68; 11,3</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,33</t>
+          <t>1,86; 6,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,54; 18,62</t>
+          <t>13,59; 18,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,99; 12,18</t>
+          <t>5,56; 11,42</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,8</t>
+          <t>4,29; 6,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,59; 11,84</t>
+          <t>8,18; 11,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,16</t>
+          <t>6,69; 8,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1002-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,0</t>
+          <t>4,67; 11,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,88</t>
+          <t>5,71; 12,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 13,08</t>
+          <t>6,14; 13,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,15</t>
+          <t>0,74; 4,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,85</t>
+          <t>4,85; 11,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,06; 25,11</t>
+          <t>15,54; 24,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,43; 24,54</t>
+          <t>15,41; 24,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,1</t>
+          <t>1,78; 5,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,23</t>
+          <t>5,4; 10,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 18,04</t>
+          <t>11,57; 17,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 17,41</t>
+          <t>11,37; 17,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,75</t>
+          <t>1,53; 3,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,95</t>
+          <t>5,19; 10,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,74</t>
+          <t>5,6; 10,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,33</t>
+          <t>1,43; 4,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,73</t>
+          <t>4,84; 9,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,87; 17,98</t>
+          <t>11,86; 18,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 18,12</t>
+          <t>11,7; 18,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 10,58</t>
+          <t>5,82; 10,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,3</t>
+          <t>8,56; 13,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 13,04</t>
+          <t>9,04; 12,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 13,63</t>
+          <t>9,28; 13,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,0</t>
+          <t>4,17; 7,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,87</t>
+          <t>7,25; 10,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,53</t>
+          <t>0,3; 3,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,6</t>
+          <t>3,31; 8,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,29</t>
+          <t>0,94; 4,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,54</t>
+          <t>3,48; 8,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,84</t>
+          <t>1,88; 6,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,8; 14,87</t>
+          <t>7,81; 15,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,21</t>
+          <t>2,82; 7,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,54</t>
+          <t>4,64; 8,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,85</t>
+          <t>1,37; 3,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,71</t>
+          <t>6,43; 11,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,53</t>
+          <t>2,41; 5,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,81</t>
+          <t>4,77; 7,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,57</t>
+          <t>0,72; 3,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,89</t>
+          <t>4,04; 9,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,66</t>
+          <t>6,18; 11,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,49</t>
+          <t>3,48; 8,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,99</t>
+          <t>4,39; 10,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 24,88</t>
+          <t>16,59; 24,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 23,29</t>
+          <t>14,37; 23,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,51</t>
+          <t>5,23; 12,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,18</t>
+          <t>2,97; 6,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 16,28</t>
+          <t>11,26; 16,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 16,46</t>
+          <t>11,38; 16,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,45</t>
+          <t>5,68; 10,58</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,54</t>
+          <t>3,73; 9,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 8,01</t>
+          <t>2,24; 8,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,34</t>
+          <t>1,86; 7,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,46</t>
+          <t>1,61; 5,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,89</t>
+          <t>3,32; 10,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 23,15</t>
+          <t>12,62; 22,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 11,69</t>
+          <t>4,83; 12,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 12,13</t>
+          <t>6,45; 12,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,72</t>
+          <t>3,95; 8,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 14,4</t>
+          <t>8,26; 14,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,63</t>
+          <t>4,16; 8,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,15</t>
+          <t>4,77; 8,03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,37</t>
+          <t>0,33; 3,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,78</t>
+          <t>4,46; 10,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,11</t>
+          <t>4,79; 11,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,01</t>
+          <t>3,31; 7,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,78</t>
+          <t>1,84; 6,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,17</t>
+          <t>6,9; 14,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 17,07</t>
+          <t>8,67; 17,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,54</t>
+          <t>5,23; 9,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,21</t>
+          <t>1,48; 4,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,41</t>
+          <t>6,58; 11,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 13,37</t>
+          <t>7,64; 13,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,82</t>
+          <t>4,81; 7,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,16</t>
+          <t>3,57; 7,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,29</t>
+          <t>2,78; 6,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,36</t>
+          <t>4,33; 8,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,95</t>
+          <t>5,81; 10,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 11,81</t>
+          <t>7,14; 11,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,94</t>
+          <t>5,61; 9,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,47</t>
+          <t>9,51; 14,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 14,16</t>
+          <t>5,08; 13,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,06; 8,93</t>
+          <t>6,01; 8,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,45</t>
+          <t>4,68; 7,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 10,76</t>
+          <t>7,52; 10,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 11,3</t>
+          <t>5,61; 11,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,75</t>
+          <t>5,92; 9,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,91</t>
+          <t>6,48; 10,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,71</t>
+          <t>2,94; 5,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,33</t>
+          <t>1,69; 6,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,4</t>
+          <t>7,28; 11,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,76</t>
+          <t>12,79; 17,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,99</t>
+          <t>5,08; 8,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,59; 18,5</t>
+          <t>13,22; 18,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,02; 9,89</t>
+          <t>7,14; 10,05</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,31; 13,79</t>
+          <t>10,44; 13,75</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,76</t>
+          <t>4,51; 6,93</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,56; 11,42</t>
+          <t>5,75; 11,35</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,07</t>
+          <t>4,47; 6,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,73</t>
+          <t>5,91; 7,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,21</t>
+          <t>4,64; 6,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,42</t>
+          <t>4,16; 6,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,59; 9,47</t>
+          <t>7,49; 9,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,89; 15,13</t>
+          <t>12,88; 15,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,53; 11,84</t>
+          <t>9,62; 11,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,18; 11,04</t>
+          <t>8,13; 11,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,57</t>
+          <t>6,26; 7,53</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,18</t>
+          <t>9,66; 11,17</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,42; 8,75</t>
+          <t>7,38; 8,7</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,69; 8,58</t>
+          <t>6,71; 8,55</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de hacer algunas tareas por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19921</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26437</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27399</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6276</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20851</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>56526</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56515</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8638</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>40772</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>82963</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>83915</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14914</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12750; 30386</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16823; 37439</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18035; 39790</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2292; 13295</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12653; 30846</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>44644; 71675</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>44477; 70154</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5152; 15034</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28810; 54562</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>67343; 100875</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>66228; 103305</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9209; 23614</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35845</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39572</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13486</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35776</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>73594</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77222</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42155</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55632</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>109440</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>116793</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>55641</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91408</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25593; 50664</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>28302; 55498</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7189; 22123</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25084; 50237</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>59788; 91095</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61182; 96640</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>30444; 55750</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44002; 68340</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>90176; 128925</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>95410; 140238</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>42747; 72530</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>74869; 109811</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17727</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6715</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17671</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11402</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>37911</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16514</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22609</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15156</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>55638</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>23229</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40280</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>944; 10911</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10731; 27984</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2992; 12911</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11008; 25712</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6304; 20805</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26638; 51864</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9492; 26057</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16176; 30731</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8962; 24775</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42755; 73405</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15762; 34788</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31674; 50948</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6122</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>23329</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32335</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18463</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25708</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>80328</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>72339</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42934</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31831</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>103656</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>104674</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61396</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2566; 13360</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15093; 34496</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22851; 43187</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10840; 27824</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16294; 37497</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>64545; 95846</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>55662; 89737</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24901; 60468</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21651; 45186</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>85916; 123892</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>86141; 125131</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44695; 83309</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12569</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9241</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8832</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5528</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12205</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>37690</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17531</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18641</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24774</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>46931</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26363</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24169</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7589; 20012</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4765; 17125</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3926; 15633</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2873; 10039</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6887; 20859</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27718; 50062</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10566; 26940</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13428; 25474</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16217; 35633</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>35681; 62217</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17878; 36879</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18459; 31076</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3617</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19514</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>21073</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14227</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10549</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29579</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>34110</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18305</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14166</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>49093</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>55183</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>32532</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>884; 9967</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12183; 28219</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12615; 30768</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8926; 21366</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5116; 17929</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19319; 41593</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>23667; 46421</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>13450; 25192</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>8148; 22772</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>36407; 62514</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>40959; 73018</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>25316; 41067</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31587</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27908</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>39201</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>50151</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>60090</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>52013</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>82198</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>86078</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>91677</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>79921</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>121399</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>136229</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>21970; 43966</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18442; 41586</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>28405; 56860</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>36279; 67931</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45553; 76295</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>38892; 68220</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>65756; 102511</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>43177; 118246</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>75371; 112595</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>63450; 99378</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>101353; 147866</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>82607; 167953</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>57118</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>66859</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>32367</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>39744</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>72410</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>124942</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>56751</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>112318</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>129528</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>191801</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>89118</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>152062</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>44060; 72323</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>50404; 85372</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>22864; 44128</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>15737; 60032</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>57035; 89178</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>105392; 147004</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>41996; 72978</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>94857; 131479</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>108996; 153440</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>167298; 220209</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>72328; 111141</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>94635; 186897</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>170534</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>230586</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>181408</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>187834</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>286809</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>496210</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>378113</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>365157</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>457343</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>726796</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>559521</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>552991</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>146413; 197135</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>202429; 265576</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>157335; 209501</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>143983; 218652</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>253234; 321680</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>458056; 540116</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>341007; 415129</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>297598; 405500</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>416591; 501248</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>674567; 780114</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>512014; 603749</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>477718; 608844</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>